--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H2">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I2">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J2">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.220416290142789</v>
+        <v>0.251793</v>
       </c>
       <c r="N2">
-        <v>0.220416290142789</v>
+        <v>0.755379</v>
       </c>
       <c r="O2">
-        <v>0.2051773680269018</v>
+        <v>0.1680913513104547</v>
       </c>
       <c r="P2">
-        <v>0.2051773680269018</v>
+        <v>0.207870972215954</v>
       </c>
       <c r="Q2">
-        <v>0.1404587154708092</v>
+        <v>0.1629608072895</v>
       </c>
       <c r="R2">
-        <v>0.1404587154708092</v>
+        <v>0.977764843737</v>
       </c>
       <c r="S2">
-        <v>0.004844894996318988</v>
+        <v>0.003534791132056795</v>
       </c>
       <c r="T2">
-        <v>0.004844894996318988</v>
+        <v>0.002968634621282572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H3">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I3">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J3">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.853855654479725</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N3">
-        <v>0.853855654479725</v>
+        <v>0.422032</v>
       </c>
       <c r="O3">
-        <v>0.7948226319730982</v>
+        <v>0.09391302799820199</v>
       </c>
       <c r="P3">
-        <v>0.7948226319730982</v>
+        <v>0.1161379944984485</v>
       </c>
       <c r="Q3">
-        <v>0.544113451632889</v>
+        <v>0.09104658114933334</v>
       </c>
       <c r="R3">
-        <v>0.544113451632889</v>
+        <v>0.546279486896</v>
       </c>
       <c r="S3">
-        <v>0.01876830875470949</v>
+        <v>0.001974896007228416</v>
       </c>
       <c r="T3">
-        <v>0.01876830875470949</v>
+        <v>0.001658583051010323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.09633485901022</v>
+        <v>0.6472015</v>
       </c>
       <c r="H4">
-        <v>2.09633485901022</v>
+        <v>1.294403</v>
       </c>
       <c r="I4">
-        <v>0.07768024142879044</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J4">
-        <v>0.07768024142879044</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.220416290142789</v>
+        <v>0.245507</v>
       </c>
       <c r="N4">
-        <v>0.220416290142789</v>
+        <v>0.736521</v>
       </c>
       <c r="O4">
-        <v>0.2051773680269018</v>
+        <v>0.1638949588994762</v>
       </c>
       <c r="P4">
-        <v>0.2051773680269018</v>
+        <v>0.2026814835036011</v>
       </c>
       <c r="Q4">
-        <v>0.4620663525200393</v>
+        <v>0.1588924986605</v>
       </c>
       <c r="R4">
-        <v>0.4620663525200393</v>
+        <v>0.953354991963</v>
       </c>
       <c r="S4">
-        <v>0.01593822748405352</v>
+        <v>0.003446545243346192</v>
       </c>
       <c r="T4">
-        <v>0.01593822748405352</v>
+        <v>0.002894522802330567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.09633485901022</v>
+        <v>0.6472015</v>
       </c>
       <c r="H5">
-        <v>2.09633485901022</v>
+        <v>1.294403</v>
       </c>
       <c r="I5">
-        <v>0.07768024142879044</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J5">
-        <v>0.07768024142879044</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.853855654479725</v>
+        <v>0.8599760000000001</v>
       </c>
       <c r="N5">
-        <v>0.853855654479725</v>
+        <v>1.719952</v>
       </c>
       <c r="O5">
-        <v>0.7948226319730982</v>
+        <v>0.5741006617918671</v>
       </c>
       <c r="P5">
-        <v>0.7948226319730982</v>
+        <v>0.4733095497819964</v>
       </c>
       <c r="Q5">
-        <v>1.789967373048833</v>
+        <v>0.556577757164</v>
       </c>
       <c r="R5">
-        <v>1.789967373048833</v>
+        <v>2.226311028656</v>
       </c>
       <c r="S5">
-        <v>0.06174201394473693</v>
+        <v>0.01207275634581452</v>
       </c>
       <c r="T5">
-        <v>0.06174201394473693</v>
+        <v>0.006759400319765578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H6">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I6">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J6">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.220416290142789</v>
+        <v>0.251793</v>
       </c>
       <c r="N6">
-        <v>0.220416290142789</v>
+        <v>0.755379</v>
       </c>
       <c r="O6">
-        <v>0.2051773680269018</v>
+        <v>0.1680913513104547</v>
       </c>
       <c r="P6">
-        <v>0.2051773680269018</v>
+        <v>0.207870972215954</v>
       </c>
       <c r="Q6">
-        <v>4.848843041530946</v>
+        <v>0.220478511762</v>
       </c>
       <c r="R6">
-        <v>4.848843041530946</v>
+        <v>1.984306605858</v>
       </c>
       <c r="S6">
-        <v>0.1672529562235081</v>
+        <v>0.0047824105755741</v>
       </c>
       <c r="T6">
-        <v>0.1672529562235081</v>
+        <v>0.006024640103519872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H7">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I7">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J7">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.853855654479725</v>
+        <v>0.1406773333333333</v>
       </c>
       <c r="N7">
-        <v>0.853855654479725</v>
+        <v>0.422032</v>
       </c>
       <c r="O7">
-        <v>0.7948226319730982</v>
+        <v>0.09391302799820199</v>
       </c>
       <c r="P7">
-        <v>0.7948226319730982</v>
+        <v>0.1161379944984485</v>
       </c>
       <c r="Q7">
-        <v>18.78360281816637</v>
+        <v>0.123181856096</v>
       </c>
       <c r="R7">
-        <v>18.78360281816637</v>
+        <v>1.108636704864</v>
       </c>
       <c r="S7">
-        <v>0.6479098360079369</v>
+        <v>0.002671943885163194</v>
       </c>
       <c r="T7">
-        <v>0.6479098360079369</v>
+        <v>0.003365980404761979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.22496521825007</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
-        <v>1.22496521825007</v>
+        <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.04539140943373137</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J8">
-        <v>0.04539140943373137</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.220416290142789</v>
+        <v>0.245507</v>
       </c>
       <c r="N8">
-        <v>0.220416290142789</v>
+        <v>0.736521</v>
       </c>
       <c r="O8">
-        <v>0.2051773680269018</v>
+        <v>0.1638949588994762</v>
       </c>
       <c r="P8">
-        <v>0.2051773680269018</v>
+        <v>0.2026814835036011</v>
       </c>
       <c r="Q8">
-        <v>0.2700022889606323</v>
+        <v>0.214974276438</v>
       </c>
       <c r="R8">
-        <v>0.2700022889606323</v>
+        <v>1.934768487942</v>
       </c>
       <c r="S8">
-        <v>0.009313289918644482</v>
+        <v>0.004663017928129338</v>
       </c>
       <c r="T8">
-        <v>0.009313289918644482</v>
+        <v>0.005874235256321078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.22496521825007</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
-        <v>1.22496521825007</v>
+        <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.04539140943373137</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J9">
-        <v>0.04539140943373137</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.853855654479725</v>
+        <v>0.8599760000000001</v>
       </c>
       <c r="N9">
-        <v>0.853855654479725</v>
+        <v>1.719952</v>
       </c>
       <c r="O9">
-        <v>0.7948226319730982</v>
+        <v>0.5741006617918671</v>
       </c>
       <c r="P9">
-        <v>0.7948226319730982</v>
+        <v>0.4733095497819964</v>
       </c>
       <c r="Q9">
-        <v>1.045943478143813</v>
+        <v>0.7530242247840002</v>
       </c>
       <c r="R9">
-        <v>1.045943478143813</v>
+        <v>4.518145348704001</v>
       </c>
       <c r="S9">
-        <v>0.03607811951508689</v>
+        <v>0.0163338866336233</v>
       </c>
       <c r="T9">
-        <v>0.03607811951508689</v>
+        <v>0.01371773877130449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02960683953876</v>
+        <v>3.540639</v>
       </c>
       <c r="H10">
-        <v>1.02960683953876</v>
+        <v>10.621917</v>
       </c>
       <c r="I10">
-        <v>0.03815235315500464</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J10">
-        <v>0.03815235315500464</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.220416290142789</v>
+        <v>0.251793</v>
       </c>
       <c r="N10">
-        <v>0.220416290142789</v>
+        <v>0.755379</v>
       </c>
       <c r="O10">
-        <v>0.2051773680269018</v>
+        <v>0.1680913513104547</v>
       </c>
       <c r="P10">
-        <v>0.2051773680269018</v>
+        <v>0.207870972215954</v>
       </c>
       <c r="Q10">
-        <v>0.2269421198767753</v>
+        <v>0.891508115727</v>
       </c>
       <c r="R10">
-        <v>0.2269421198767753</v>
+        <v>8.023573041543001</v>
       </c>
       <c r="S10">
-        <v>0.007827999404376715</v>
+        <v>0.0193377477323746</v>
       </c>
       <c r="T10">
-        <v>0.007827999404376715</v>
+        <v>0.02436072115916752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.540639</v>
+      </c>
+      <c r="H11">
+        <v>10.621917</v>
+      </c>
+      <c r="I11">
+        <v>0.1150430856889177</v>
+      </c>
+      <c r="J11">
+        <v>0.1171915486778959</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1406773333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.422032</v>
+      </c>
+      <c r="O11">
+        <v>0.09391302799820199</v>
+      </c>
+      <c r="P11">
+        <v>0.1161379944984485</v>
+      </c>
+      <c r="Q11">
+        <v>0.4980876528160001</v>
+      </c>
+      <c r="R11">
+        <v>4.482788875344</v>
+      </c>
+      <c r="S11">
+        <v>0.01080404452730288</v>
+      </c>
+      <c r="T11">
+        <v>0.01361039143561813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.540639</v>
+      </c>
+      <c r="H12">
+        <v>10.621917</v>
+      </c>
+      <c r="I12">
+        <v>0.1150430856889177</v>
+      </c>
+      <c r="J12">
+        <v>0.1171915486778959</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.245507</v>
+      </c>
+      <c r="N12">
+        <v>0.736521</v>
+      </c>
+      <c r="O12">
+        <v>0.1638949588994762</v>
+      </c>
+      <c r="P12">
+        <v>0.2026814835036011</v>
+      </c>
+      <c r="Q12">
+        <v>0.8692516589730001</v>
+      </c>
+      <c r="R12">
+        <v>7.823264930756999</v>
+      </c>
+      <c r="S12">
+        <v>0.01885498180065407</v>
+      </c>
+      <c r="T12">
+        <v>0.02375255694012042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.540639</v>
+      </c>
+      <c r="H13">
+        <v>10.621917</v>
+      </c>
+      <c r="I13">
+        <v>0.1150430856889177</v>
+      </c>
+      <c r="J13">
+        <v>0.1171915486778959</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8599760000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.719952</v>
+      </c>
+      <c r="O13">
+        <v>0.5741006617918671</v>
+      </c>
+      <c r="P13">
+        <v>0.4733095497819964</v>
+      </c>
+      <c r="Q13">
+        <v>3.044864564664</v>
+      </c>
+      <c r="R13">
+        <v>18.269187387984</v>
+      </c>
+      <c r="S13">
+        <v>0.06604631162858611</v>
+      </c>
+      <c r="T13">
+        <v>0.05546787914298981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H14">
+        <v>70.271782</v>
+      </c>
+      <c r="I14">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J14">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.251793</v>
+      </c>
+      <c r="N14">
+        <v>0.755379</v>
+      </c>
+      <c r="O14">
+        <v>0.1680913513104547</v>
+      </c>
+      <c r="P14">
+        <v>0.207870972215954</v>
+      </c>
+      <c r="Q14">
+        <v>5.897980935042</v>
+      </c>
+      <c r="R14">
+        <v>53.08182841537801</v>
+      </c>
+      <c r="S14">
+        <v>0.1279334034544256</v>
+      </c>
+      <c r="T14">
+        <v>0.1611640616905411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H15">
+        <v>70.271782</v>
+      </c>
+      <c r="I15">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J15">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1406773333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.422032</v>
+      </c>
+      <c r="O15">
+        <v>0.09391302799820199</v>
+      </c>
+      <c r="P15">
+        <v>0.1161379944984485</v>
+      </c>
+      <c r="Q15">
+        <v>3.295215633447112</v>
+      </c>
+      <c r="R15">
+        <v>29.656940701024</v>
+      </c>
+      <c r="S15">
+        <v>0.07147668935286547</v>
+      </c>
+      <c r="T15">
+        <v>0.09004273521422021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="H11">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="I11">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="J11">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.853855654479725</v>
-      </c>
-      <c r="N11">
-        <v>0.853855654479725</v>
-      </c>
-      <c r="O11">
-        <v>0.7948226319730982</v>
-      </c>
-      <c r="P11">
-        <v>0.7948226319730982</v>
-      </c>
-      <c r="Q11">
-        <v>0.8791356218311692</v>
-      </c>
-      <c r="R11">
-        <v>0.8791356218311692</v>
-      </c>
-      <c r="S11">
-        <v>0.03032435375062793</v>
-      </c>
-      <c r="T11">
-        <v>0.03032435375062793</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H16">
+        <v>70.271782</v>
+      </c>
+      <c r="I16">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J16">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.245507</v>
+      </c>
+      <c r="N16">
+        <v>0.736521</v>
+      </c>
+      <c r="O16">
+        <v>0.1638949588994762</v>
+      </c>
+      <c r="P16">
+        <v>0.2026814835036011</v>
+      </c>
+      <c r="Q16">
+        <v>5.750738127824667</v>
+      </c>
+      <c r="R16">
+        <v>51.756643150422</v>
+      </c>
+      <c r="S16">
+        <v>0.124739552258743</v>
+      </c>
+      <c r="T16">
+        <v>0.1571406087280412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>23.42392733333334</v>
+      </c>
+      <c r="H17">
+        <v>70.271782</v>
+      </c>
+      <c r="I17">
+        <v>0.761094502822696</v>
+      </c>
+      <c r="J17">
+        <v>0.7753081633885378</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8599760000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.719952</v>
+      </c>
+      <c r="O17">
+        <v>0.5741006617918671</v>
+      </c>
+      <c r="P17">
+        <v>0.4733095497819964</v>
+      </c>
+      <c r="Q17">
+        <v>20.14401533241067</v>
+      </c>
+      <c r="R17">
+        <v>120.864091994464</v>
+      </c>
+      <c r="S17">
+        <v>0.4369448577566619</v>
+      </c>
+      <c r="T17">
+        <v>0.3669607577557353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.731273</v>
+      </c>
+      <c r="I18">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J18">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.251793</v>
+      </c>
+      <c r="N18">
+        <v>0.755379</v>
+      </c>
+      <c r="O18">
+        <v>0.1680913513104547</v>
+      </c>
+      <c r="P18">
+        <v>0.207870972215954</v>
+      </c>
+      <c r="Q18">
+        <v>0.313169474163</v>
+      </c>
+      <c r="R18">
+        <v>2.818525267467</v>
+      </c>
+      <c r="S18">
+        <v>0.00679297493989273</v>
+      </c>
+      <c r="T18">
+        <v>0.008557447880804422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.731273</v>
+      </c>
+      <c r="I19">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J19">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1406773333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.422032</v>
+      </c>
+      <c r="O19">
+        <v>0.09391302799820199</v>
+      </c>
+      <c r="P19">
+        <v>0.1161379944984485</v>
+      </c>
+      <c r="Q19">
+        <v>0.1749685118595556</v>
+      </c>
+      <c r="R19">
+        <v>1.574716606736</v>
+      </c>
+      <c r="S19">
+        <v>0.00379525086060482</v>
+      </c>
+      <c r="T19">
+        <v>0.004781065986784981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.731273</v>
+      </c>
+      <c r="I20">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J20">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.245507</v>
+      </c>
+      <c r="N20">
+        <v>0.736521</v>
+      </c>
+      <c r="O20">
+        <v>0.1638949588994762</v>
+      </c>
+      <c r="P20">
+        <v>0.2026814835036011</v>
+      </c>
+      <c r="Q20">
+        <v>0.3053512134703333</v>
+      </c>
+      <c r="R20">
+        <v>2.748160921233</v>
+      </c>
+      <c r="S20">
+        <v>0.006623388650868946</v>
+      </c>
+      <c r="T20">
+        <v>0.008343811610619244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.731273</v>
+      </c>
+      <c r="I21">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J21">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8599760000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.719952</v>
+      </c>
+      <c r="O21">
+        <v>0.5741006617918671</v>
+      </c>
+      <c r="P21">
+        <v>0.4733095497819964</v>
+      </c>
+      <c r="Q21">
+        <v>1.069601743149333</v>
+      </c>
+      <c r="R21">
+        <v>6.417610458896</v>
+      </c>
+      <c r="S21">
+        <v>0.02320078563307634</v>
+      </c>
+      <c r="T21">
+        <v>0.01948478789784377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.045475</v>
+      </c>
+      <c r="H22">
+        <v>2.09095</v>
+      </c>
+      <c r="I22">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J22">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.251793</v>
+      </c>
+      <c r="N22">
+        <v>0.755379</v>
+      </c>
+      <c r="O22">
+        <v>0.1680913513104547</v>
+      </c>
+      <c r="P22">
+        <v>0.207870972215954</v>
+      </c>
+      <c r="Q22">
+        <v>0.263243286675</v>
+      </c>
+      <c r="R22">
+        <v>1.57945972005</v>
+      </c>
+      <c r="S22">
+        <v>0.005710023476130816</v>
+      </c>
+      <c r="T22">
+        <v>0.00479546676063853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.045475</v>
+      </c>
+      <c r="H23">
+        <v>2.09095</v>
+      </c>
+      <c r="I23">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J23">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1406773333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.422032</v>
+      </c>
+      <c r="O23">
+        <v>0.09391302799820199</v>
+      </c>
+      <c r="P23">
+        <v>0.1161379944984485</v>
+      </c>
+      <c r="Q23">
+        <v>0.1470746350666667</v>
+      </c>
+      <c r="R23">
+        <v>0.8824478104000002</v>
+      </c>
+      <c r="S23">
+        <v>0.003190203365037207</v>
+      </c>
+      <c r="T23">
+        <v>0.002679238406052856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.045475</v>
+      </c>
+      <c r="H24">
+        <v>2.09095</v>
+      </c>
+      <c r="I24">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J24">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.245507</v>
+      </c>
+      <c r="N24">
+        <v>0.736521</v>
+      </c>
+      <c r="O24">
+        <v>0.1638949588994762</v>
+      </c>
+      <c r="P24">
+        <v>0.2026814835036011</v>
+      </c>
+      <c r="Q24">
+        <v>0.256671430825</v>
+      </c>
+      <c r="R24">
+        <v>1.54002858495</v>
+      </c>
+      <c r="S24">
+        <v>0.005567473017734601</v>
+      </c>
+      <c r="T24">
+        <v>0.004675748166168573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.045475</v>
+      </c>
+      <c r="H25">
+        <v>2.09095</v>
+      </c>
+      <c r="I25">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J25">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8599760000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.719952</v>
+      </c>
+      <c r="O25">
+        <v>0.5741006617918671</v>
+      </c>
+      <c r="P25">
+        <v>0.4733095497819964</v>
+      </c>
+      <c r="Q25">
+        <v>0.8990834086000002</v>
+      </c>
+      <c r="R25">
+        <v>3.596333634400001</v>
+      </c>
+      <c r="S25">
+        <v>0.01950206379410498</v>
+      </c>
+      <c r="T25">
+        <v>0.01091898589435735</v>
       </c>
     </row>
   </sheetData>
